--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137719</v>
+        <v>5.270858666666666</v>
       </c>
       <c r="H2">
-        <v>9.413157</v>
+        <v>15.812576</v>
       </c>
       <c r="I2">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="J2">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N2">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O2">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P2">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q2">
-        <v>110.554400659157</v>
+        <v>234.0377277168782</v>
       </c>
       <c r="R2">
-        <v>994.989605932413</v>
+        <v>2106.339549451904</v>
       </c>
       <c r="S2">
-        <v>0.01989419957400247</v>
+        <v>0.02631284550048434</v>
       </c>
       <c r="T2">
-        <v>0.01989419957400247</v>
+        <v>0.02631284550048434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.137719</v>
+        <v>5.270858666666666</v>
       </c>
       <c r="H3">
-        <v>9.413157</v>
+        <v>15.812576</v>
       </c>
       <c r="I3">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="J3">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N3">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P3">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q3">
-        <v>0.4044979989786666</v>
+        <v>2.118679620512</v>
       </c>
       <c r="R3">
-        <v>3.640481990808</v>
+        <v>19.068116584608</v>
       </c>
       <c r="S3">
-        <v>7.278917773500416E-05</v>
+        <v>0.0002382030028380617</v>
       </c>
       <c r="T3">
-        <v>7.278917773500417E-05</v>
+        <v>0.0002382030028380616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.137719</v>
+        <v>5.270858666666666</v>
       </c>
       <c r="H4">
-        <v>9.413157</v>
+        <v>15.812576</v>
       </c>
       <c r="I4">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="J4">
-        <v>0.02008359063640063</v>
+        <v>0.02659672411376159</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N4">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O4">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P4">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q4">
-        <v>0.64797035069</v>
+        <v>0.4062584595448889</v>
       </c>
       <c r="R4">
-        <v>5.83173315621</v>
+        <v>3.656326135904</v>
       </c>
       <c r="S4">
-        <v>0.0001166018846631548</v>
+        <v>4.567561043919034E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001166018846631548</v>
+        <v>4.567561043919033E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>7.548092</v>
       </c>
       <c r="I5">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="J5">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N5">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O5">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P5">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q5">
-        <v>88.64983205742534</v>
+        <v>111.7173002221742</v>
       </c>
       <c r="R5">
-        <v>797.8484885168281</v>
+        <v>1005.455701999568</v>
       </c>
       <c r="S5">
-        <v>0.01595248529807071</v>
+        <v>0.01256036831819444</v>
       </c>
       <c r="T5">
-        <v>0.01595248529807072</v>
+        <v>0.01256036831819444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>7.548092</v>
       </c>
       <c r="I6">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="J6">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N6">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P6">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q6">
-        <v>0.3243532547164444</v>
+        <v>1.011346202804</v>
       </c>
       <c r="R6">
-        <v>2.919179292448</v>
+        <v>9.102115825236</v>
       </c>
       <c r="S6">
-        <v>5.836717799864201E-05</v>
+        <v>0.0001137055834607815</v>
       </c>
       <c r="T6">
-        <v>5.836717799864203E-05</v>
+        <v>0.0001137055834607815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>7.548092</v>
       </c>
       <c r="I7">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="J7">
-        <v>0.01610435158086607</v>
+        <v>0.01269587703542364</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N7">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O7">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P7">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q7">
-        <v>0.5195854929733333</v>
+        <v>0.1939264183408889</v>
       </c>
       <c r="R7">
-        <v>4.67626943676</v>
+        <v>1.745337765068</v>
       </c>
       <c r="S7">
-        <v>9.349910479670967E-05</v>
+        <v>2.180313376841124E-05</v>
       </c>
       <c r="T7">
-        <v>9.34991047967097E-05</v>
+        <v>2.180313376841123E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.661911</v>
+        <v>114.018682</v>
       </c>
       <c r="H8">
-        <v>217.985733</v>
+        <v>342.056046</v>
       </c>
       <c r="I8">
-        <v>0.4650869231382975</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="J8">
-        <v>0.4650869231382976</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N8">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O8">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P8">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q8">
-        <v>2560.169990159733</v>
+        <v>5062.680473925309</v>
       </c>
       <c r="R8">
-        <v>23041.5299114376</v>
+        <v>45564.12426532779</v>
       </c>
       <c r="S8">
-        <v>0.4607010885494862</v>
+        <v>0.5691968146685629</v>
       </c>
       <c r="T8">
-        <v>0.4607010885494863</v>
+        <v>0.5691968146685628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.661911</v>
+        <v>114.018682</v>
       </c>
       <c r="H9">
-        <v>217.985733</v>
+        <v>342.056046</v>
       </c>
       <c r="I9">
-        <v>0.4650869231382975</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="J9">
-        <v>0.4650869231382976</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N9">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P9">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q9">
-        <v>9.367186035927999</v>
+        <v>45.83106343540201</v>
       </c>
       <c r="R9">
-        <v>84.304674323352</v>
+        <v>412.479570918618</v>
       </c>
       <c r="S9">
-        <v>0.001685619634627592</v>
+        <v>0.005152783284400605</v>
       </c>
       <c r="T9">
-        <v>0.001685619634627593</v>
+        <v>0.005152783284400604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>72.661911</v>
+        <v>114.018682</v>
       </c>
       <c r="H10">
-        <v>217.985733</v>
+        <v>342.056046</v>
       </c>
       <c r="I10">
-        <v>0.4650869231382975</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="J10">
-        <v>0.4650869231382976</v>
+        <v>0.5753376481419691</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N10">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O10">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P10">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q10">
-        <v>15.00541124061</v>
+        <v>8.788141940059335</v>
       </c>
       <c r="R10">
-        <v>135.04870116549</v>
+        <v>79.09327746053401</v>
       </c>
       <c r="S10">
-        <v>0.00270021495418373</v>
+        <v>0.0009880501890056227</v>
       </c>
       <c r="T10">
-        <v>0.00270021495418373</v>
+        <v>0.0009880501890056224</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.972004</v>
+        <v>1.265015666666667</v>
       </c>
       <c r="H11">
-        <v>2.916012</v>
+        <v>3.795047</v>
       </c>
       <c r="I11">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="J11">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N11">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O11">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P11">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q11">
-        <v>34.247591852012</v>
+        <v>56.16948032115423</v>
       </c>
       <c r="R11">
-        <v>308.228326668108</v>
+        <v>505.5253228903881</v>
       </c>
       <c r="S11">
-        <v>0.006162834072371903</v>
+        <v>0.006315130778064029</v>
       </c>
       <c r="T11">
-        <v>0.006162834072371903</v>
+        <v>0.006315130778064029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.972004</v>
+        <v>1.265015666666667</v>
       </c>
       <c r="H12">
-        <v>2.916012</v>
+        <v>3.795047</v>
       </c>
       <c r="I12">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="J12">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N12">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P12">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q12">
-        <v>0.1253055716586667</v>
+        <v>0.508486962389</v>
       </c>
       <c r="R12">
-        <v>1.127750144928</v>
+        <v>4.576382661501</v>
       </c>
       <c r="S12">
-        <v>2.254866414587634E-05</v>
+        <v>5.716915392606351E-05</v>
       </c>
       <c r="T12">
-        <v>2.254866414587635E-05</v>
+        <v>5.71691539260635E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.972004</v>
+        <v>1.265015666666667</v>
       </c>
       <c r="H13">
-        <v>2.916012</v>
+        <v>3.795047</v>
       </c>
       <c r="I13">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="J13">
-        <v>0.006221503720678606</v>
+        <v>0.006383262161570549</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N13">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O13">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P13">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q13">
-        <v>0.20072854604</v>
+        <v>0.09750276919588889</v>
       </c>
       <c r="R13">
-        <v>1.80655691436</v>
+        <v>0.877524922763</v>
       </c>
       <c r="S13">
-        <v>3.612098416082673E-05</v>
+        <v>1.096222958045659E-05</v>
       </c>
       <c r="T13">
-        <v>3.612098416082674E-05</v>
+        <v>1.096222958045659E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>76.94530466666667</v>
+        <v>75.10640066666666</v>
       </c>
       <c r="H14">
-        <v>230.835914</v>
+        <v>225.319202</v>
       </c>
       <c r="I14">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="J14">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.234003</v>
+        <v>44.40220133333333</v>
       </c>
       <c r="N14">
-        <v>105.702009</v>
+        <v>133.206604</v>
       </c>
       <c r="O14">
-        <v>0.9905698604484152</v>
+        <v>0.9893265572082102</v>
       </c>
       <c r="P14">
-        <v>0.9905698604484153</v>
+        <v>0.9893265572082101</v>
       </c>
       <c r="Q14">
-        <v>2711.091095461248</v>
+        <v>3334.889523823334</v>
       </c>
       <c r="R14">
-        <v>24399.81985915123</v>
+        <v>30014.00571441001</v>
       </c>
       <c r="S14">
-        <v>0.4878592529544838</v>
+        <v>0.3749413979429045</v>
       </c>
       <c r="T14">
-        <v>0.4878592529544839</v>
+        <v>0.3749413979429045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>76.94530466666667</v>
+        <v>75.10640066666666</v>
       </c>
       <c r="H15">
-        <v>230.835914</v>
+        <v>225.319202</v>
       </c>
       <c r="I15">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="J15">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.1289146666666666</v>
+        <v>0.401961</v>
       </c>
       <c r="N15">
-        <v>0.386744</v>
+        <v>1.205883</v>
       </c>
       <c r="O15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191794</v>
       </c>
       <c r="P15">
-        <v>0.00362431096375152</v>
+        <v>0.008956103083191792</v>
       </c>
       <c r="Q15">
-        <v>9.919378302668443</v>
+        <v>30.189843918374</v>
       </c>
       <c r="R15">
-        <v>89.27440472401599</v>
+        <v>271.708595265366</v>
       </c>
       <c r="S15">
-        <v>0.001784986309244405</v>
+        <v>0.003394242058566282</v>
       </c>
       <c r="T15">
-        <v>0.001784986309244405</v>
+        <v>0.003394242058566282</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>76.94530466666667</v>
+        <v>75.10640066666666</v>
       </c>
       <c r="H16">
-        <v>230.835914</v>
+        <v>225.319202</v>
       </c>
       <c r="I16">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="J16">
-        <v>0.4925036309237571</v>
+        <v>0.3789864885472752</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.20651</v>
+        <v>0.07707633333333333</v>
       </c>
       <c r="N16">
-        <v>0.61953</v>
+        <v>0.231229</v>
       </c>
       <c r="O16">
-        <v>0.005805828587833242</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="P16">
-        <v>0.005805828587833243</v>
+        <v>0.00171733970859806</v>
       </c>
       <c r="Q16">
-        <v>15.88997486671333</v>
+        <v>5.788925973250888</v>
       </c>
       <c r="R16">
-        <v>143.00977380042</v>
+        <v>52.10033375925799</v>
       </c>
       <c r="S16">
-        <v>0.002859391660028821</v>
+        <v>0.0006508485458043798</v>
       </c>
       <c r="T16">
-        <v>0.002859391660028821</v>
+        <v>0.0006508485458043797</v>
       </c>
     </row>
   </sheetData>
